--- a/tmp/Gods of the deep - CCSL.converted/Gods of the deep - CCSL.converted.txt-total-recap.xlsx
+++ b/tmp/Gods of the deep - CCSL.converted/Gods of the deep - CCSL.converted.txt-total-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,8 +470,7 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -496,11 +495,6 @@
           <t>Blocks (50)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Blocks (40)</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -514,9 +508,6 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -530,9 +521,6 @@
       <c r="C5" t="n">
         <v>68</v>
       </c>
-      <c r="D5" t="n">
-        <v>85</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -546,350 +534,297 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4 - JAMES PETERS</t>
+          <t>4 - JAMES PETER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5026</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>101</v>
-      </c>
-      <c r="D7" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5 - HANK Oâ€™CONNELL</t>
+          <t>5 - JAMES PETERS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1911</v>
+        <v>5011</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
-      </c>
-      <c r="D8" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - GORDON ATKINS</t>
+          <t>6 - HANK Oâ€™CONNELL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2632</v>
+        <v>1911</v>
       </c>
       <c r="C9" t="n">
-        <v>53</v>
-      </c>
-      <c r="D9" t="n">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 - JOSEPH MEEKER</t>
+          <t>7 - GORDON ATKINS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365</v>
+        <v>2632</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8 - CHRISTINE HARRIS</t>
+          <t>8 - JOSEPH MEEKER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6530</v>
+        <v>365</v>
       </c>
       <c r="C11" t="n">
-        <v>131</v>
-      </c>
-      <c r="D11" t="n">
-        <v>164</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9 - JED PICKMAN</t>
+          <t>9 - CHRISTINE HARRIS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1191</v>
+        <v>6530</v>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10 - EVERYONE</t>
+          <t>10 - JED PICKMAN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41</v>
+        <v>1191</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11 - RACHEL</t>
+          <t>11 - EVERYONE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1030</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
-      </c>
-      <c r="D14" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 - CAMERON</t>
+          <t>12 - RACHEL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>504</v>
+        <v>1030</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13 - JOE MEEKER</t>
+          <t>13 - CAMERON</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1582</v>
+        <v>504</v>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14 - JED PECKHAM</t>
+          <t>14 - JOE MEEKER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>58</v>
+        <v>1582</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15 - WALTON PETERS</t>
+          <t>15 - JED PECKHAM</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 - GORDANS ATIKINS</t>
+          <t>16 - WALTON PETERS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1591</v>
+        <v>103</v>
       </c>
       <c r="C19" t="n">
-        <v>32</v>
-      </c>
-      <c r="D19" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17 - HANK Oâ€™CONNOLL</t>
+          <t>17 - GORDANS ATIKINS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>451</v>
+        <v>1591</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - JED PECKMAN</t>
+          <t>18 - HANK Oâ€™CONNOLL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>932</v>
+        <v>451</v>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19 - JOE WEEKER</t>
+          <t>19 - JED PECKMAN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>898</v>
+        <v>932</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 - CONTROL SCREENS</t>
+          <t>20 - JOE WEEKER</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>197</v>
+        <v>898</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21 - JOE WEETER</t>
+          <t>21 - CONTROL SCREENS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>938</v>
+        <v>197</v>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
-      </c>
-      <c r="D24" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22 - RADIO</t>
+          <t>22 - JOE WEETER</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41</v>
+        <v>938</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23 - JIMâ€™S DAD</t>
+          <t>23 - RADIO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24 - FEMALE DOCTOR</t>
+          <t>24 - JIMâ€™S DAD</t>
         </is>
       </c>
       <c r="B27" t="n">
+        <v>78</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25 - FEMALE DOCTOR</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>115</v>
       </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C28" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tmp/Gods of the deep - CCSL.converted/Gods of the deep - CCSL.converted.txt-total-recap.xlsx
+++ b/tmp/Gods of the deep - CCSL.converted/Gods of the deep - CCSL.converted.txt-total-recap.xlsx
@@ -462,6 +462,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -487,12 +490,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Characters</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Blocks (50)</t>
+          <t>Lines</t>
         </is>
       </c>
     </row>
@@ -503,9 +501,6 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
-      </c>
-      <c r="C4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -516,9 +511,6 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3384</v>
-      </c>
-      <c r="C5" t="n">
         <v>68</v>
       </c>
     </row>
@@ -529,9 +521,6 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62</v>
-      </c>
-      <c r="C6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -542,9 +531,6 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -555,9 +541,6 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5011</v>
-      </c>
-      <c r="C8" t="n">
         <v>101</v>
       </c>
     </row>
@@ -568,9 +551,6 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1911</v>
-      </c>
-      <c r="C9" t="n">
         <v>39</v>
       </c>
     </row>
@@ -581,9 +561,6 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2632</v>
-      </c>
-      <c r="C10" t="n">
         <v>53</v>
       </c>
     </row>
@@ -594,9 +571,6 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>365</v>
-      </c>
-      <c r="C11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -607,9 +581,6 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6530</v>
-      </c>
-      <c r="C12" t="n">
         <v>131</v>
       </c>
     </row>
@@ -620,9 +591,6 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1191</v>
-      </c>
-      <c r="C13" t="n">
         <v>24</v>
       </c>
     </row>
@@ -633,9 +601,6 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41</v>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -646,9 +611,6 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1030</v>
-      </c>
-      <c r="C15" t="n">
         <v>21</v>
       </c>
     </row>
@@ -659,9 +621,6 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504</v>
-      </c>
-      <c r="C16" t="n">
         <v>11</v>
       </c>
     </row>
@@ -672,9 +631,6 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1582</v>
-      </c>
-      <c r="C17" t="n">
         <v>32</v>
       </c>
     </row>
@@ -685,9 +641,6 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58</v>
-      </c>
-      <c r="C18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -698,9 +651,6 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103</v>
-      </c>
-      <c r="C19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -711,9 +661,6 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1591</v>
-      </c>
-      <c r="C20" t="n">
         <v>32</v>
       </c>
     </row>
@@ -724,9 +671,6 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>451</v>
-      </c>
-      <c r="C21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -737,9 +681,6 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>932</v>
-      </c>
-      <c r="C22" t="n">
         <v>19</v>
       </c>
     </row>
@@ -750,9 +691,6 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>898</v>
-      </c>
-      <c r="C23" t="n">
         <v>18</v>
       </c>
     </row>
@@ -763,9 +701,6 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>197</v>
-      </c>
-      <c r="C24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -776,9 +711,6 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>938</v>
-      </c>
-      <c r="C25" t="n">
         <v>19</v>
       </c>
     </row>
@@ -789,9 +721,6 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -802,9 +731,6 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>78</v>
-      </c>
-      <c r="C27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -815,9 +741,6 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115</v>
-      </c>
-      <c r="C28" t="n">
         <v>3</v>
       </c>
     </row>

--- a/tmp/Gods of the deep - CCSL.converted/Gods of the deep - CCSL.converted.txt-total-recap.xlsx
+++ b/tmp/Gods of the deep - CCSL.converted/Gods of the deep - CCSL.converted.txt-total-recap.xlsx
@@ -547,7 +547,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - HANK Oâ€™CONNELL</t>
+          <t>6 - HANK O’CONNELL</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -667,7 +667,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - HANK Oâ€™CONNOLL</t>
+          <t>18 - HANK O’CONNOLL</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24 - JIMâ€™S DAD</t>
+          <t>24 - JIM’S DAD</t>
         </is>
       </c>
       <c r="B27" t="n">
